--- a/data/trans_orig/IP19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A4D107-6D83-4821-A90E-543C73D2B8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F19127-48E5-4D13-9BDA-93474A90443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7E5445D1-9AFF-48DA-B439-2CF7D6554A8C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{46EC894A-CD0A-4EF0-A773-BB5AFAD783C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,114 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>92,14%</t>
   </si>
   <si>
@@ -101,9 +203,6 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>7,86%</t>
   </si>
   <si>
@@ -131,58 +230,61 @@
     <t>10,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,108 +344,6 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
     <t>92,92%</t>
   </si>
   <si>
@@ -401,6 +401,84 @@
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
     <t>97,15%</t>
   </si>
   <si>
@@ -449,52 +527,58 @@
     <t>8,0%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>95,97%</t>
@@ -551,90 +635,6 @@
     <t>7,02%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
     <t>92,1%</t>
   </si>
   <si>
@@ -686,6 +686,81 @@
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
   </si>
   <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
     <t>94,5%</t>
   </si>
   <si>
@@ -734,46 +809,52 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>96,03%</t>
@@ -830,87 +911,6 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
     <t>96,08%</t>
   </si>
   <si>
@@ -962,6 +962,90 @@
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
     <t>97,11%</t>
   </si>
   <si>
@@ -1016,58 +1100,46 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>96,76%</t>
@@ -1079,9 +1151,6 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
     <t>97,44%</t>
   </si>
   <si>
@@ -1100,9 +1169,6 @@
     <t>7,46%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
     <t>2,56%</t>
   </si>
   <si>
@@ -1110,72 +1176,6 @@
   </si>
   <si>
     <t>4,94%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
   </si>
   <si>
     <t>95,05%</t>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88939DFB-3CE5-40E7-8948-20340C1754FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E598960-CD23-4ABD-9BEE-B229A1D47E7D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,10 +1721,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>102856</v>
+        <v>12768</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1736,10 +1736,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>103179</v>
+        <v>16726</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1748,73 +1748,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29494</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>320</v>
-      </c>
-      <c r="N4" s="7">
-        <v>206035</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>961</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8775</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>833</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6882</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1794</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15657</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,54 +1823,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1882,13 +1882,13 @@
         <v>63703</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -1897,13 +1897,13 @@
         <v>54082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -1912,19 +1912,19 @@
         <v>117785</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1933,13 +1933,13 @@
         <v>4756</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1948,13 +1948,13 @@
         <v>4031</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1963,13 +1963,13 @@
         <v>8788</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +1984,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1999,13 +1999,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2014,117 +2014,117 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>85949</v>
+        <v>102856</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
+        <v>163</v>
+      </c>
+      <c r="I10" s="7">
+        <v>103179</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>320</v>
+      </c>
+      <c r="N10" s="7">
+        <v>206035</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>116</v>
-      </c>
-      <c r="I10" s="7">
-        <v>89768</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>241</v>
-      </c>
-      <c r="N10" s="7">
-        <v>175717</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>4094</v>
+        <v>8775</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6882</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15657</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6221</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10315</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,150 +2133,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7">
-        <v>12768</v>
+        <v>70837</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
+        <v>111</v>
+      </c>
+      <c r="I13" s="7">
+        <v>66656</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>222</v>
+      </c>
+      <c r="N13" s="7">
+        <v>137492</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16726</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29494</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>961</v>
+        <v>7032</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2552</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>833</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>15</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9585</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1794</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>81</v>
@@ -2288,49 +2288,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,10 +2341,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>70837</v>
+        <v>85949</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -2356,10 +2356,10 @@
         <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I16" s="7">
-        <v>66656</v>
+        <v>89768</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>86</v>
@@ -2371,10 +2371,10 @@
         <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="N16" s="7">
-        <v>137492</v>
+        <v>175717</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>89</v>
@@ -2389,13 +2389,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>7032</v>
+        <v>4094</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>92</v>
@@ -2407,10 +2407,10 @@
         <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>2552</v>
+        <v>6221</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>95</v>
@@ -2422,10 +2422,10 @@
         <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>9585</v>
+        <v>10315</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>98</v>
@@ -2443,49 +2443,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,7 +2544,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
@@ -2604,13 +2604,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2619,13 +2619,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2634,13 +2634,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568FC4FE-4554-4503-B9D6-5F95FFC96C0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EBF049-3513-49CA-A684-E66AD1005D48}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,100 +2779,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>111437</v>
+        <v>11039</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>104490</v>
+        <v>11994</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23034</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="7">
-        <v>321</v>
-      </c>
-      <c r="N4" s="7">
-        <v>215928</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2001</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3269</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>896</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2897</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8109</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" s="7">
-        <v>17</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11378</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,54 +2881,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>112599</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227306</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2940,13 +2940,13 @@
         <v>55769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -2955,13 +2955,13 @@
         <v>58216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
@@ -2970,19 +2970,19 @@
         <v>113985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -2991,13 +2991,13 @@
         <v>6433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3006,13 +3006,13 @@
         <v>2811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3021,13 +3021,13 @@
         <v>9244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3057,13 +3057,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -3072,117 +3072,117 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7">
-        <v>92420</v>
+        <v>111437</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="7">
+        <v>158</v>
+      </c>
+      <c r="I10" s="7">
+        <v>104490</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="7">
+        <v>321</v>
+      </c>
+      <c r="N10" s="7">
+        <v>215928</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="7">
-        <v>116</v>
-      </c>
-      <c r="I10" s="7">
-        <v>89724</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" s="7">
-        <v>242</v>
-      </c>
-      <c r="N10" s="7">
-        <v>182144</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3881</v>
+        <v>3269</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8109</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="7">
+        <v>17</v>
+      </c>
+      <c r="N11" s="7">
+        <v>11378</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3253</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7133</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,147 +3191,147 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D13" s="7">
-        <v>11039</v>
+        <v>74359</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
+        <v>104</v>
+      </c>
+      <c r="I13" s="7">
+        <v>67346</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="7">
+        <v>219</v>
+      </c>
+      <c r="N13" s="7">
+        <v>141705</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11994</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23034</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>2001</v>
+        <v>5394</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7151</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>896</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>19</v>
+      </c>
+      <c r="N14" s="7">
+        <v>12545</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2897</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>178</v>
@@ -3346,49 +3346,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,10 +3399,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D16" s="7">
-        <v>74359</v>
+        <v>92420</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>180</v>
@@ -3414,10 +3414,10 @@
         <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I16" s="7">
-        <v>67346</v>
+        <v>89724</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>183</v>
@@ -3429,10 +3429,10 @@
         <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="N16" s="7">
-        <v>141705</v>
+        <v>182144</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>186</v>
@@ -3447,13 +3447,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>5394</v>
+        <v>3881</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>189</v>
@@ -3465,10 +3465,10 @@
         <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>7151</v>
+        <v>3253</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>192</v>
@@ -3480,10 +3480,10 @@
         <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>12545</v>
+        <v>7133</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>195</v>
@@ -3501,49 +3501,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3560,7 @@
         <v>345024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>198</v>
@@ -3602,7 +3602,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>29</v>
@@ -3611,7 +3611,7 @@
         <v>20978</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>206</v>
@@ -3662,13 +3662,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -3677,13 +3677,13 @@
         <v>353991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3692,13 +3692,13 @@
         <v>719992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D86F49-5C77-4D0D-B926-B7A8F9B28625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8A1B63-57CE-42A6-AC1B-5A531DA80A72}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3837,100 +3837,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>102620</v>
+        <v>15477</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13966</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="7">
-        <v>155</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100197</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29443</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M4" s="7">
-        <v>304</v>
-      </c>
-      <c r="N4" s="7">
-        <v>202815</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5972</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6986</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M5" s="7">
-        <v>19</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12959</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,54 +3939,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107183</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>215774</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3998,13 +3998,13 @@
         <v>58894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -4013,13 +4013,13 @@
         <v>53757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -4028,19 +4028,19 @@
         <v>112651</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4049,13 +4049,13 @@
         <v>1426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4064,13 +4064,13 @@
         <v>2081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4079,13 +4079,13 @@
         <v>3507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4100,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4115,13 +4115,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -4130,117 +4130,117 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>103131</v>
+        <v>102620</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="7">
+        <v>155</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100197</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" s="7">
+        <v>304</v>
+      </c>
+      <c r="N10" s="7">
+        <v>202815</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="H10" s="7">
-        <v>137</v>
-      </c>
-      <c r="I10" s="7">
-        <v>103471</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M10" s="7">
-        <v>277</v>
-      </c>
-      <c r="N10" s="7">
-        <v>206602</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>4261</v>
+        <v>5972</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6986</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="7">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7">
+        <v>12959</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6119</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10380</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,153 +4249,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>107392</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>109590</v>
+        <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>216982</v>
+        <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D13" s="7">
-        <v>15477</v>
+        <v>74078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="7">
+        <v>114</v>
+      </c>
+      <c r="I13" s="7">
+        <v>72629</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M13" s="7">
+        <v>221</v>
+      </c>
+      <c r="N13" s="7">
+        <v>146707</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13966</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>33</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29443</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1036</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5744</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1036</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,49 +4404,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,94 +4457,94 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7">
-        <v>74078</v>
+        <v>103131</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>137</v>
+      </c>
+      <c r="I16" s="7">
+        <v>103471</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>72629</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>277</v>
+      </c>
+      <c r="N16" s="7">
+        <v>206602</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M16" s="7">
-        <v>221</v>
-      </c>
-      <c r="N16" s="7">
-        <v>146707</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2785</v>
+        <v>4261</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6119</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>14</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10380</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5744</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>288</v>
@@ -4559,49 +4559,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>107392</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109590</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>216982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,7 +4636,7 @@
         <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>294</v>
@@ -4660,7 +4660,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>20</v>
@@ -4690,7 +4690,7 @@
         <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -4720,13 +4720,13 @@
         <v>368644</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
@@ -4735,13 +4735,13 @@
         <v>363201</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1039</v>
@@ -4750,13 +4750,13 @@
         <v>731845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605B9B93-3DB5-41D0-BA3A-7EDE74C8364B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5301C3C-2E93-4200-A9AE-33678F57A9AF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,100 +4895,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>162129</v>
+        <v>6505</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8576</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H4" s="7">
-        <v>154</v>
-      </c>
-      <c r="I4" s="7">
-        <v>112580</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15080</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M4" s="7">
-        <v>359</v>
-      </c>
-      <c r="N4" s="7">
-        <v>274707</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4821</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>943</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>943</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5920</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M5" s="7">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10742</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,54 +4997,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5056,13 +5056,13 @@
         <v>70106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5071,13 +5071,13 @@
         <v>58802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>170</v>
@@ -5086,19 +5086,19 @@
         <v>128908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5107,13 +5107,13 @@
         <v>1646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5122,13 +5122,13 @@
         <v>3720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5137,13 +5137,13 @@
         <v>5366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5158,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5173,13 +5173,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5188,117 +5188,117 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="D10" s="7">
-        <v>104279</v>
+        <v>162129</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="7">
+        <v>154</v>
+      </c>
+      <c r="I10" s="7">
+        <v>112580</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M10" s="7">
+        <v>359</v>
+      </c>
+      <c r="N10" s="7">
+        <v>274707</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H10" s="7">
-        <v>136</v>
-      </c>
-      <c r="I10" s="7">
-        <v>102275</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M10" s="7">
-        <v>269</v>
-      </c>
-      <c r="N10" s="7">
-        <v>206554</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>3496</v>
+        <v>4821</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5920</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M11" s="7">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10742</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1922</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5418</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,150 +5307,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>6505</v>
+        <v>107103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="7">
+        <v>135</v>
+      </c>
+      <c r="I13" s="7">
+        <v>99627</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8576</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>257</v>
+      </c>
+      <c r="N13" s="7">
+        <v>206729</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>23</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15080</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>362</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>943</v>
+        <v>5659</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>943</v>
+        <v>10378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>366</v>
@@ -5462,49 +5462,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,10 +5515,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D16" s="7">
-        <v>107103</v>
+        <v>104279</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>367</v>
@@ -5527,85 +5527,85 @@
         <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" s="7">
-        <v>99627</v>
+        <v>102275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M16" s="7">
+        <v>269</v>
+      </c>
+      <c r="N16" s="7">
+        <v>206554</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="M16" s="7">
-        <v>257</v>
-      </c>
-      <c r="N16" s="7">
-        <v>206729</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>4718</v>
+        <v>3496</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>5659</v>
+        <v>1922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5418</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="M17" s="7">
-        <v>13</v>
-      </c>
-      <c r="N17" s="7">
-        <v>10378</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>378</v>
@@ -5617,49 +5617,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5676,13 @@
         <v>450121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>528</v>
@@ -5706,7 +5706,7 @@
         <v>831979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>383</v>
@@ -5718,7 +5718,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>20</v>
@@ -5727,10 +5727,10 @@
         <v>14682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>385</v>
@@ -5757,7 +5757,7 @@
         <v>32847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>389</v>
@@ -5778,13 +5778,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5793,13 +5793,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5808,13 +5808,13 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F19127-48E5-4D13-9BDA-93474A90443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71345AC8-5F4A-4034-B480-F77B9DFE23EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{46EC894A-CD0A-4EF0-A773-BB5AFAD783C4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83604483-A42A-4A5B-AB44-0E001E685EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="390">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>67,61%</t>
+    <t>69,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,37 +110,13 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>75,93%</t>
+    <t>76,15%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>81,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,1093 +125,1090 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1219,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1318,39 +1315,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1402,7 +1399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1513,13 +1510,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1528,6 +1518,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1592,19 +1589,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E598960-CD23-4ABD-9BEE-B229A1D47E7D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE7AC9-7D55-47BA-8E50-8DC0D5A0786F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1721,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12768</v>
+        <v>961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1736,34 +1753,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>16726</v>
+        <v>833</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>29494</v>
+        <v>1794</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,10 +1789,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>961</v>
+        <v>12768</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1787,34 +1804,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>833</v>
+        <v>16726</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>1794</v>
+        <v>29494</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>63703</v>
+        <v>4756</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1891,10 +1908,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>54082</v>
+        <v>4031</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1906,10 +1923,10 @@
         <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>117785</v>
+        <v>8788</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1927,10 +1944,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>4756</v>
+        <v>63703</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1942,10 +1959,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7">
-        <v>4031</v>
+        <v>54082</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1957,10 +1974,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>8788</v>
+        <v>117785</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>39</v>
@@ -2031,10 +2048,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>102856</v>
+        <v>8775</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>45</v>
@@ -2046,10 +2063,10 @@
         <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>103179</v>
+        <v>6882</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>48</v>
@@ -2061,10 +2078,10 @@
         <v>50</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>206035</v>
+        <v>15657</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>51</v>
@@ -2082,10 +2099,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>8775</v>
+        <v>102856</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
@@ -2097,10 +2114,10 @@
         <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="I11" s="7">
-        <v>6882</v>
+        <v>103179</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>57</v>
@@ -2112,10 +2129,10 @@
         <v>59</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="N11" s="7">
-        <v>15657</v>
+        <v>206035</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -2186,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>70837</v>
+        <v>7032</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -2201,10 +2218,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>66656</v>
+        <v>2552</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -2216,10 +2233,10 @@
         <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>137492</v>
+        <v>9585</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>70</v>
@@ -2237,10 +2254,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D14" s="7">
-        <v>7032</v>
+        <v>70837</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -2252,10 +2269,10 @@
         <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="I14" s="7">
-        <v>2552</v>
+        <v>66656</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -2267,10 +2284,10 @@
         <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="N14" s="7">
-        <v>9585</v>
+        <v>137492</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -2341,10 +2358,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>85949</v>
+        <v>4094</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -2356,10 +2373,10 @@
         <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>89768</v>
+        <v>6221</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>86</v>
@@ -2371,10 +2388,10 @@
         <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>175717</v>
+        <v>10315</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>89</v>
@@ -2392,10 +2409,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>4094</v>
+        <v>85949</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>92</v>
@@ -2407,10 +2424,10 @@
         <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7">
-        <v>6221</v>
+        <v>89768</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>95</v>
@@ -2422,10 +2439,10 @@
         <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="N17" s="7">
-        <v>10315</v>
+        <v>175717</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>98</v>
@@ -2496,10 +2513,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>507</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>336112</v>
+        <v>25619</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>101</v>
@@ -2511,10 +2528,10 @@
         <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>492</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>330411</v>
+        <v>20519</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>104</v>
@@ -2526,10 +2543,10 @@
         <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>999</v>
+        <v>68</v>
       </c>
       <c r="N19" s="7">
-        <v>666523</v>
+        <v>46138</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>107</v>
@@ -2547,10 +2564,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>38</v>
+        <v>507</v>
       </c>
       <c r="D20" s="7">
-        <v>25619</v>
+        <v>336112</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
@@ -2562,10 +2579,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>30</v>
+        <v>492</v>
       </c>
       <c r="I20" s="7">
-        <v>20519</v>
+        <v>330411</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>113</v>
@@ -2577,10 +2594,10 @@
         <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>68</v>
+        <v>999</v>
       </c>
       <c r="N20" s="7">
-        <v>46138</v>
+        <v>666523</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>116</v>
@@ -2641,6 +2658,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2661,8 +2683,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EBF049-3513-49CA-A684-E66AD1005D48}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66DF02C-DFDA-44F0-AC59-134CFE58C1EC}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2678,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2779,49 +2801,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2001</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>11039</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>11994</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>23034</v>
+        <v>2897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,49 +2852,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>2001</v>
+        <v>11039</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>11994</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>2897</v>
+        <v>23034</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,49 +2956,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>55769</v>
+        <v>6433</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2811</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="7">
-        <v>80</v>
-      </c>
-      <c r="I7" s="7">
-        <v>58216</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>113985</v>
+        <v>9244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,49 +3007,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>6433</v>
+        <v>55769</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7">
-        <v>2811</v>
+        <v>58216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="N8" s="7">
-        <v>9244</v>
+        <v>113985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,49 +3111,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>111437</v>
+        <v>3269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>104490</v>
+        <v>8109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>215928</v>
+        <v>11378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,49 +3162,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>3269</v>
+        <v>111437</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>8109</v>
+        <v>104490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="N11" s="7">
-        <v>11378</v>
+        <v>215928</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,49 +3266,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>74359</v>
+        <v>5394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>67346</v>
+        <v>7151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>141705</v>
+        <v>12545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,49 +3317,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D14" s="7">
-        <v>5394</v>
+        <v>74359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>7151</v>
+        <v>67346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="N14" s="7">
-        <v>12545</v>
+        <v>141705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,25 +3421,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>92420</v>
+        <v>3881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>89724</v>
+        <v>3253</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>183</v>
@@ -3429,10 +3451,10 @@
         <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>182144</v>
+        <v>7133</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>186</v>
@@ -3450,49 +3472,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>3881</v>
+        <v>92420</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>116</v>
+      </c>
+      <c r="I17" s="7">
+        <v>89724</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3253</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>242</v>
+      </c>
+      <c r="N17" s="7">
+        <v>182144</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7133</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,49 +3576,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>495</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>345024</v>
+        <v>20978</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>22220</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="7">
-        <v>472</v>
-      </c>
-      <c r="I19" s="7">
-        <v>331771</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>61</v>
+      </c>
+      <c r="N19" s="7">
+        <v>43199</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M19" s="7">
-        <v>967</v>
-      </c>
-      <c r="N19" s="7">
-        <v>676793</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,49 +3627,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="D20" s="7">
-        <v>20978</v>
+        <v>345024</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>472</v>
+      </c>
+      <c r="I20" s="7">
+        <v>331771</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="7">
-        <v>32</v>
-      </c>
-      <c r="I20" s="7">
-        <v>22220</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>967</v>
+      </c>
+      <c r="N20" s="7">
+        <v>676793</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M20" s="7">
-        <v>61</v>
-      </c>
-      <c r="N20" s="7">
-        <v>43199</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,6 +3721,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3719,8 +3746,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8A1B63-57CE-42A6-AC1B-5A531DA80A72}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70F4A16-D896-4ED8-9ADE-DDD63330F74D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3736,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3837,49 +3864,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15477</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>13966</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>29443</v>
+        <v>1036</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +3915,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>15477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13966</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1036</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>33</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29443</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1036</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,49 +4019,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>58894</v>
+        <v>1426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2081</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>79</v>
-      </c>
-      <c r="I7" s="7">
-        <v>53757</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3507</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="7">
-        <v>156</v>
-      </c>
-      <c r="N7" s="7">
-        <v>112651</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,49 +4070,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7">
-        <v>1426</v>
+        <v>58894</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>79</v>
+      </c>
+      <c r="I8" s="7">
+        <v>53757</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2081</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>156</v>
+      </c>
+      <c r="N8" s="7">
+        <v>112651</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3507</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,49 +4174,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>102620</v>
+        <v>5972</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>100197</v>
+        <v>6986</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12959</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="M10" s="7">
-        <v>304</v>
-      </c>
-      <c r="N10" s="7">
-        <v>202815</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,49 +4225,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7">
-        <v>5972</v>
+        <v>102620</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>6986</v>
+        <v>100197</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>304</v>
+      </c>
+      <c r="N11" s="7">
+        <v>202815</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12959</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,49 +4329,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>74078</v>
+        <v>2785</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="7">
-        <v>114</v>
-      </c>
-      <c r="I13" s="7">
-        <v>72629</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="M13" s="7">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>146707</v>
+        <v>5744</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,49 +4380,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>2785</v>
+        <v>74078</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>114</v>
+      </c>
+      <c r="I14" s="7">
+        <v>72629</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>221</v>
+      </c>
+      <c r="N14" s="7">
+        <v>146707</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5744</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,49 +4484,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>103131</v>
+        <v>4261</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6119</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="7">
-        <v>137</v>
-      </c>
-      <c r="I16" s="7">
-        <v>103471</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>14</v>
+      </c>
+      <c r="N16" s="7">
+        <v>10380</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M16" s="7">
-        <v>277</v>
-      </c>
-      <c r="N16" s="7">
-        <v>206602</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,49 +4535,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7">
-        <v>4261</v>
+        <v>103131</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>137</v>
+      </c>
+      <c r="I17" s="7">
+        <v>103471</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6119</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>277</v>
+      </c>
+      <c r="N17" s="7">
+        <v>206602</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="M17" s="7">
-        <v>14</v>
-      </c>
-      <c r="N17" s="7">
-        <v>10380</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,49 +4639,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>491</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>354199</v>
+        <v>14445</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>28</v>
+      </c>
+      <c r="I19" s="7">
+        <v>19181</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H19" s="7">
-        <v>500</v>
-      </c>
-      <c r="I19" s="7">
-        <v>344020</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>294</v>
       </c>
       <c r="M19" s="7">
-        <v>991</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>698219</v>
+        <v>33626</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,40 +4690,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>491</v>
       </c>
       <c r="D20" s="7">
-        <v>14445</v>
+        <v>354199</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>500</v>
+      </c>
+      <c r="I20" s="7">
+        <v>344020</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="7">
-        <v>28</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19181</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="M20" s="7">
-        <v>48</v>
+        <v>991</v>
       </c>
       <c r="N20" s="7">
-        <v>33626</v>
+        <v>698219</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>303</v>
@@ -4705,7 +4732,7 @@
         <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,6 +4784,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4777,8 +4809,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5301C3C-2E93-4200-A9AE-33678F57A9AF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B3EC77-79FF-4C4C-879C-44267CDDE125}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4794,7 +4826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4895,49 +4927,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6505</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>943</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8576</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>943</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15080</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,49 +4978,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8576</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>943</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>23</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15080</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>943</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,49 +5082,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>70106</v>
+        <v>1646</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3720</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H7" s="7">
-        <v>89</v>
-      </c>
-      <c r="I7" s="7">
-        <v>58802</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5366</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M7" s="7">
-        <v>170</v>
-      </c>
-      <c r="N7" s="7">
-        <v>128908</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +5133,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7">
-        <v>1646</v>
+        <v>70106</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>58802</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3720</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>170</v>
+      </c>
+      <c r="N8" s="7">
+        <v>128908</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5366</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,49 +5237,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>162129</v>
+        <v>4821</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5920</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>112580</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10742</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="M10" s="7">
-        <v>359</v>
-      </c>
-      <c r="N10" s="7">
-        <v>274707</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +5288,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>4821</v>
+        <v>162129</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>154</v>
+      </c>
+      <c r="I11" s="7">
+        <v>112580</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5920</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>359</v>
+      </c>
+      <c r="N11" s="7">
+        <v>274707</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10742</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,49 +5392,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>107103</v>
+        <v>4718</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5659</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H13" s="7">
-        <v>135</v>
-      </c>
-      <c r="I13" s="7">
-        <v>99627</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10378</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="M13" s="7">
-        <v>257</v>
-      </c>
-      <c r="N13" s="7">
-        <v>206729</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +5443,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>4718</v>
+        <v>107103</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>135</v>
+      </c>
+      <c r="I14" s="7">
+        <v>99627</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5659</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>257</v>
+      </c>
+      <c r="N14" s="7">
+        <v>206729</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10378</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,49 +5547,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>104279</v>
+        <v>3496</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1922</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H16" s="7">
-        <v>136</v>
-      </c>
-      <c r="I16" s="7">
-        <v>102275</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="M16" s="7">
-        <v>269</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>206554</v>
+        <v>5418</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +5598,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="D17" s="7">
-        <v>3496</v>
+        <v>104279</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>136</v>
+      </c>
+      <c r="I17" s="7">
+        <v>102275</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1922</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="N17" s="7">
-        <v>5418</v>
+        <v>206554</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,49 +5702,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>450121</v>
+        <v>14682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>381859</v>
+        <v>18165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>382</v>
       </c>
       <c r="M19" s="7">
-        <v>1078</v>
+        <v>46</v>
       </c>
       <c r="N19" s="7">
-        <v>831979</v>
+        <v>32847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5753,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="D20" s="7">
-        <v>14682</v>
+        <v>450121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>384</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>528</v>
       </c>
       <c r="I20" s="7">
-        <v>18165</v>
+        <v>381859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>1078</v>
       </c>
       <c r="N20" s="7">
-        <v>32847</v>
+        <v>831979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,6 +5847,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71345AC8-5F4A-4034-B480-F77B9DFE23EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62454035-BA1D-44E2-9EAA-18A3884BEEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83604483-A42A-4A5B-AB44-0E001E685EDE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8104DAA-0DF7-49FE-BF3A-08BC1E04E984}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="388">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>30,01%</t>
+    <t>28,37%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>23,85%</t>
+    <t>24,87%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>17,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>93,0%</t>
   </si>
   <si>
-    <t>69,99%</t>
+    <t>71,63%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,1105 +110,1099 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>76,15%</t>
+    <t>75,13%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>81,74%</t>
+    <t>82,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
     <t>3,62%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>98,94%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE7AC9-7D55-47BA-8E50-8DC0D5A0786F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393CE3A-B55B-4C6B-8A67-F5084859CF77}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2683,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66DF02C-DFDA-44F0-AC59-134CFE58C1EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7586310-7158-4752-A821-DD08EF5002FF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,10 +2834,10 @@
         <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,10 +2852,10 @@
         <v>11039</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2876,7 +2870,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2888,13 +2882,13 @@
         <v>23034</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2956,13 @@
         <v>6433</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2980,10 +2974,10 @@
         <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2992,13 +2986,13 @@
         <v>9244</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3007,13 @@
         <v>55769</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -3120,10 +3114,10 @@
         <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3132,13 +3126,13 @@
         <v>8109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3147,10 +3141,10 @@
         <v>11378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>156</v>
@@ -3174,7 +3168,7 @@
         <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>158</v>
@@ -3183,13 +3177,13 @@
         <v>104490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>321</v>
@@ -3198,13 +3192,13 @@
         <v>215928</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,10 +3284,10 @@
         <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3302,13 +3296,13 @@
         <v>12545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3317,13 @@
         <v>74359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -3338,13 +3332,13 @@
         <v>67346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3353,13 +3347,13 @@
         <v>141705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3421,13 @@
         <v>3881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3442,13 +3436,13 @@
         <v>3253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3457,13 +3451,13 @@
         <v>7133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3472,13 @@
         <v>92420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -3493,13 +3487,13 @@
         <v>89724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>242</v>
@@ -3508,13 +3502,13 @@
         <v>182144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,10 +3579,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -3597,13 +3591,13 @@
         <v>22220</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -3612,13 +3606,13 @@
         <v>43199</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,10 +3630,10 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>472</v>
@@ -3648,13 +3642,13 @@
         <v>331771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -3663,13 +3657,13 @@
         <v>676793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70F4A16-D896-4ED8-9ADE-DDD63330F74D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386935E0-C38D-4327-B0C1-D0BC66E69C80}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3873,10 +3867,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3885,13 +3879,13 @@
         <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3900,13 +3894,13 @@
         <v>1036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -3936,10 +3930,10 @@
         <v>13966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3951,10 +3945,10 @@
         <v>29443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4025,13 +4019,13 @@
         <v>1426</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4040,13 +4034,13 @@
         <v>2081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4055,13 +4049,13 @@
         <v>3507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4070,10 @@
         <v>58894</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4091,13 +4085,13 @@
         <v>53757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -4106,13 +4100,13 @@
         <v>112651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4359,7 @@
         <v>5744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>261</v>
@@ -4416,7 +4410,7 @@
         <v>146707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>269</v>
@@ -4520,13 +4514,13 @@
         <v>10380</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4535,13 @@
         <v>103131</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -4556,13 +4550,13 @@
         <v>103471</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>277</v>
@@ -4571,13 +4565,13 @@
         <v>206602</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4639,13 @@
         <v>14445</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4660,13 +4654,13 @@
         <v>19181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4675,13 +4669,13 @@
         <v>33626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4690,13 @@
         <v>354199</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>500</v>
@@ -4711,13 +4705,13 @@
         <v>344020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>991</v>
@@ -4726,13 +4720,13 @@
         <v>698219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B3EC77-79FF-4C4C-879C-44267CDDE125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51CDC9B-F345-40CD-A799-346FCEA740B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4826,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4936,10 +4930,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4948,13 +4942,13 @@
         <v>943</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4963,13 +4957,13 @@
         <v>943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +4981,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4999,10 +4993,10 @@
         <v>8576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5014,10 +5008,10 @@
         <v>15080</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5088,13 +5082,13 @@
         <v>1646</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5103,13 +5097,13 @@
         <v>3720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5118,13 +5112,13 @@
         <v>5366</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5133,13 @@
         <v>70106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5154,13 +5148,13 @@
         <v>58802</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>170</v>
@@ -5169,13 +5163,13 @@
         <v>128908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5237,13 @@
         <v>4821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5258,13 +5252,13 @@
         <v>5920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5273,13 +5267,13 @@
         <v>10742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5288,13 @@
         <v>162129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>154</v>
@@ -5309,13 +5303,13 @@
         <v>112580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>359</v>
@@ -5324,13 +5318,13 @@
         <v>274707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5392,13 @@
         <v>4718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5413,13 +5407,13 @@
         <v>5659</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5428,13 +5422,13 @@
         <v>10378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5443,13 @@
         <v>107103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -5464,13 +5458,13 @@
         <v>99627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>257</v>
@@ -5479,13 +5473,13 @@
         <v>206729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5547,13 @@
         <v>3496</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5568,13 +5562,13 @@
         <v>1922</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5583,13 +5577,13 @@
         <v>5418</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5598,13 @@
         <v>104279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -5619,13 +5613,13 @@
         <v>102275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -5634,13 +5628,13 @@
         <v>206554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5702,13 @@
         <v>14682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5723,13 +5717,13 @@
         <v>18165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -5738,13 +5732,13 @@
         <v>32847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5753,13 @@
         <v>450121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>528</v>
@@ -5774,13 +5768,13 @@
         <v>381859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>1078</v>
@@ -5789,13 +5783,13 @@
         <v>831979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
